--- a/AFC_rå_BP_rev.xlsx
+++ b/AFC_rå_BP_rev.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bjørn\Documents\OTICON ANSØGNING\OM project\OM BP rev 05-18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alberteseeberg/Desktop/5. semester/Bachelor/Data/Bachelor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C2D2A9F-A1F7-4E0D-81B5-500646EB3422}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425F7FAD-7420-2944-9C2A-94AEFF079BE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26655" yWindow="795" windowWidth="25605" windowHeight="14100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="25600" windowHeight="14100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oversigt" sheetId="1" r:id="rId1"/>
-    <sheet name="Normalthørende unge" sheetId="5" r:id="rId2"/>
-    <sheet name="Normalthørende kontroller" sheetId="4" r:id="rId3"/>
-    <sheet name="Erfarne CI" sheetId="6" r:id="rId4"/>
-    <sheet name="Nyopererede " sheetId="2" r:id="rId5"/>
+    <sheet name="AFC_control_unge" sheetId="5" r:id="rId2"/>
+    <sheet name="AFC_control" sheetId="4" r:id="rId3"/>
+    <sheet name="AFC_erfarne" sheetId="6" r:id="rId4"/>
+    <sheet name="AFC_Ny" sheetId="2" r:id="rId5"/>
     <sheet name="OM_piloter" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
@@ -595,7 +595,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Erfarne CI'!$B$3:$Q$3</c:f>
+              <c:f>AFC_erfarne!$B$3:$Q$3</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -651,7 +651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Erfarne CI'!$B$33:$Q$33</c:f>
+              <c:f>AFC_erfarne!$B$33:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1730,12 +1730,12 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:4" ht="19">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1978,22 +1978,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
+    <row r="1" spans="1:21" ht="19">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="18">
+    <row r="2" spans="1:21" ht="19">
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:21">
@@ -2058,7 +2058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1">
+    <row r="4" spans="1:21" ht="17" thickBot="1">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -2808,23 +2808,23 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
+    <row r="1" spans="1:21" ht="19">
       <c r="A1" s="16" t="s">
         <v>60</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1">
+    <row r="4" spans="1:21" ht="17" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>49</v>
       </c>
@@ -4802,17 +4802,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75">
+    <row r="1" spans="1:21" ht="19">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" thickBot="1">
+    <row r="4" spans="1:21" ht="17" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -6580,26 +6580,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75">
+    <row r="1" spans="1:22" ht="19">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -7546,12 +7546,12 @@
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
